--- a/test/files/viffer/1.xlsx
+++ b/test/files/viffer/1.xlsx
@@ -15721,8 +15721,8 @@
   <dimension ref="A1:H473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E409" sqref="E409"/>
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D276" sqref="D276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>

--- a/test/files/viffer/1.xlsx
+++ b/test/files/viffer/1.xlsx
@@ -6241,7 +6241,7 @@
       <name val="Courier"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6266,6 +6266,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -7023,7 +7029,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7225,6 +7231,12 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="249">
@@ -15721,8 +15733,8 @@
   <dimension ref="A1:H473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D276" sqref="D276"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -15745,9 +15757,10 @@
       <c r="B1" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>219</v>
-      </c>
+      <c r="C1" s="75" t="s">
+        <v>687</v>
+      </c>
+      <c r="D1" s="76"/>
       <c r="E1" s="13" t="s">
         <v>1891</v>
       </c>
